--- a/tests/fixtures/orderforms/1508.27.balsamic_qc.xlsx
+++ b/tests/fixtures/orderforms/1508.27.balsamic_qc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincent.janvid/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D5EA8F-3044-664F-BA6E-F2135CF1FBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD85B45C-B1D1-C94E-8DF2-07FC92CFBCF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28920" yWindow="-8960" windowWidth="51080" windowHeight="26280" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28920" yWindow="-8960" windowWidth="51080" windowHeight="26280" tabRatio="993" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="712">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -3085,6 +3085,21 @@
   <si>
     <t>canfam3</t>
   </si>
+  <si>
+    <t>Fastq + Scout</t>
+  </si>
+  <si>
+    <t>cust902</t>
+  </si>
+  <si>
+    <t>cust903</t>
+  </si>
+  <si>
+    <t>cust904</t>
+  </si>
+  <si>
+    <t>cust905</t>
+  </si>
 </sst>
 </file>
 
@@ -5361,8 +5376,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -72351,7 +72366,7 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="22">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="20">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$E$3:$E$5</xm:f>
@@ -72394,12 +72409,6 @@
           </x14:formula1>
           <xm:sqref>AK15:AK395</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3537F57E-BB5D-7D49-8715-24A5F9258908}">
-          <x14:formula1>
-            <xm:f>'Drop down lists'!$F$3:$F$203</xm:f>
-          </x14:formula1>
-          <xm:sqref>B395</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A198A72C-F977-B448-940D-6C736E9211D7}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$I$3:$I$7</xm:f>
@@ -72436,12 +72445,6 @@
           </x14:formula1>
           <xm:sqref>AI15:AI394</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A7CF1B78-A6BE-5F4D-8ECA-CE067F34AEBE}">
-          <x14:formula1>
-            <xm:f>'Drop down lists'!$F$3:$F$205</xm:f>
-          </x14:formula1>
-          <xm:sqref>B15:B394</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4C459A59-671B-2646-953F-0ABF3B6CC601}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$D$3:$D$54</xm:f>
@@ -72464,25 +72467,25 @@
           <x14:formula1>
             <xm:f>'Drop down lists'!$C$4:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>D395:E395</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E7BA82AC-35CB-2742-9F9D-840BD5371448}">
-          <x14:formula1>
-            <xm:f>'Drop down lists'!$C$4:$C$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>D57:D394</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7BBF2937-B2A6-2649-8513-9B0C4480F165}">
-          <x14:formula1>
-            <xm:f>'Drop down lists'!$C$3:$C$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>D15:D56</xm:sqref>
+          <xm:sqref>E395</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5AB2FA93-7CEE-B84D-A85D-EBC8A9D4CFE5}">
           <x14:formula1>
             <xm:f>'Drop down lists'!$S$3:$S$5</xm:f>
           </x14:formula1>
           <xm:sqref>AF15:AF394</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{939815D4-AD0A-5C40-996F-FEA4BB73D1D9}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!$C$3:$C$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>D15:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4399854A-D798-B749-8BBC-139813A22B98}">
+          <x14:formula1>
+            <xm:f>'Drop down lists'!$F$3:$F$209</xm:f>
+          </x14:formula1>
+          <xm:sqref>B15:B1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -72495,10 +72498,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:AO205"/>
+  <dimension ref="A2:AO209"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A222" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -72870,7 +72873,9 @@
     <row r="9" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A9" s="135"/>
       <c r="B9" s="138"/>
-      <c r="C9" s="138"/>
+      <c r="C9" s="150" t="s">
+        <v>707</v>
+      </c>
       <c r="D9" s="167" t="s">
         <v>483</v>
       </c>
@@ -74857,6 +74862,26 @@
     <row r="205" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F205" s="149" t="s">
         <v>537</v>
+      </c>
+    </row>
+    <row r="206" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F206" s="149" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="207" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F207" s="149" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="208" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F208" s="149" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="209" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F209" s="149" t="s">
+        <v>711</v>
       </c>
     </row>
   </sheetData>
